--- a/test/data/test_target.xlsx
+++ b/test/data/test_target.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t xml:space="preserve">Society code</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOB</t>
   </si>
   <si>
     <t xml:space="preserve">Gender</t>
@@ -122,14 +125,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -189,8 +194,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -215,18 +224,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -266,19 +275,22 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>29493</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>15</v>
@@ -289,20 +301,23 @@
       <c r="G2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>10140</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>21811</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>20</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,37 +325,40 @@
         <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>32883</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="0" t="n">
         <v>5754</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>80918</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>27</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -348,37 +366,40 @@
         <v>500</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="D4" s="1" t="n">
+        <v>27885</v>
+      </c>
       <c r="E4" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>5754</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>80918</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="L4" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/test_target.xlsx
+++ b/test/data/test_target.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t xml:space="preserve">Society code</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t xml:space="preserve">Ignored col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date dep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date arr</t>
   </si>
   <si>
     <t xml:space="preserve">Barnes</t>
@@ -224,13 +230,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.02"/>
@@ -278,34 +284,40 @@
       <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>42</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>29493</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>10140</v>
@@ -314,10 +326,13 @@
         <v>21811</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>44703</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -325,28 +340,28 @@
         <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>32883</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>5754</v>
@@ -355,10 +370,13 @@
         <v>80918</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>41640</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -366,28 +384,28 @@
         <v>500</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>27885</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>5754</v>
@@ -396,10 +414,13 @@
         <v>80918</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>42005</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/test_target.xlsx
+++ b/test/data/test_target.xlsx
@@ -103,7 +103,7 @@
     <t xml:space="preserve">UKR Ukraine</t>
   </si>
   <si>
-    <t xml:space="preserve">Wife of Alexander Baker</t>
+    <t xml:space="preserve">Wife of Alexander Baker, family</t>
   </si>
   <si>
     <t xml:space="preserve">N Academy Blvd</t>
@@ -233,13 +233,13 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.34"/>
   </cols>
